--- a/Test8V8D.xlsx
+++ b/Test8V8D.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="363">
   <si>
     <t>Page/Section</t>
   </si>
@@ -571,9 +571,6 @@
     <t>E-Signature Discount</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>01458751</t>
   </si>
   <si>
@@ -1028,13 +1025,100 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>2VIN</t>
+  </si>
+  <si>
+    <t>3VIN</t>
+  </si>
+  <si>
+    <t>4VIN</t>
+  </si>
+  <si>
+    <t>5VIN</t>
+  </si>
+  <si>
+    <t>6VIN</t>
+  </si>
+  <si>
+    <t>7VIN</t>
+  </si>
+  <si>
+    <t>Confirm Vehicle_Third Vehicle</t>
+  </si>
+  <si>
+    <t>Confirm Vehicle_Forth Vehicle</t>
+  </si>
+  <si>
+    <t>Confirm Vehicle_Fifth Vehicle</t>
+  </si>
+  <si>
+    <t>Confirm Vehicle_Sixth Vehicle</t>
+  </si>
+  <si>
+    <t>Confirm Vehicle_Seventh Vehicle</t>
+  </si>
+  <si>
+    <t>Confirm Vehicle_Eighth Vehicle</t>
+  </si>
+  <si>
+    <t>1G1PC5SH5B7132454</t>
+  </si>
+  <si>
+    <t>2GCEC13C471545349</t>
+  </si>
+  <si>
+    <t>1N4AA5AP4AC866722</t>
+  </si>
+  <si>
+    <t>JM1DE1LY7C0137130</t>
+  </si>
+  <si>
+    <t>1G1ZH5SX4HF114706</t>
+  </si>
+  <si>
+    <t>1G6AA5RA3E0168526</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>428I</t>
+  </si>
+  <si>
+    <t>CONV 2D 4 cyl</t>
+  </si>
+  <si>
+    <t>228I</t>
+  </si>
+  <si>
+    <t>228I XDRIVE</t>
+  </si>
+  <si>
+    <t>CONV 2D 4 cyl 4WD</t>
+  </si>
+  <si>
+    <t>328D XDRIVE</t>
+  </si>
+  <si>
+    <t>SEDAN 4D 4 cyl</t>
+  </si>
+  <si>
+    <t>328I XDRIVE GT (GRAN TURISMO)</t>
+  </si>
+  <si>
+    <t>335I XDRIVE GT (GRAN TURISMO)</t>
+  </si>
+  <si>
+    <t>SEDAN 4D 6 cyl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,6 +1166,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1368,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1444,12 +1540,104 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1848,7 +2036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2383,18 +2571,18 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F24">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G24">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"SKIPPED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2413,7 +2601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -2421,7 +2609,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="45.140625" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="7"/>
@@ -2470,10 +2658,10 @@
         <v>165</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2482,7 +2670,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>182</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2542,7 +2730,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2551,7 +2739,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2765,10 +2953,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>108</v>
@@ -2777,7 +2965,7 @@
     <row r="38" spans="1:3">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>109</v>
@@ -2786,25 +2974,25 @@
     <row r="39" spans="1:3">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>15</v>
@@ -2813,7 +3001,7 @@
     <row r="42" spans="1:3">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>71</v>
@@ -2822,7 +3010,7 @@
     <row r="43" spans="1:3">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>112</v>
@@ -2831,7 +3019,7 @@
     <row r="44" spans="1:3">
       <c r="A44" s="11"/>
       <c r="B44" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>15</v>
@@ -2839,10 +3027,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>97</v>
@@ -2851,7 +3039,7 @@
     <row r="46" spans="1:3">
       <c r="A46" s="14"/>
       <c r="B46" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>82</v>
@@ -2860,7 +3048,7 @@
     <row r="47" spans="1:3">
       <c r="A47" s="14"/>
       <c r="B47" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>15</v>
@@ -2869,14 +3057,14 @@
     <row r="48" spans="1:3">
       <c r="A48" s="14"/>
       <c r="B48" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="14"/>
       <c r="B49" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>14</v>
@@ -2885,7 +3073,7 @@
     <row r="50" spans="1:3">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>117</v>
@@ -2894,7 +3082,7 @@
     <row r="51" spans="1:3">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>15</v>
@@ -2903,7 +3091,7 @@
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>15</v>
@@ -2911,10 +3099,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>108</v>
@@ -2923,7 +3111,7 @@
     <row r="54" spans="1:3">
       <c r="A54" s="14"/>
       <c r="B54" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>109</v>
@@ -2932,25 +3120,25 @@
     <row r="55" spans="1:3">
       <c r="A55" s="14"/>
       <c r="B55" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>218</v>
+        <v>223</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14"/>
       <c r="B56" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>217</v>
+        <v>224</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="14"/>
       <c r="B57" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>15</v>
@@ -2959,7 +3147,7 @@
     <row r="58" spans="1:3">
       <c r="A58" s="14"/>
       <c r="B58" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>71</v>
@@ -2968,7 +3156,7 @@
     <row r="59" spans="1:3">
       <c r="A59" s="14"/>
       <c r="B59" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>112</v>
@@ -2977,7 +3165,7 @@
     <row r="60" spans="1:3">
       <c r="A60" s="11"/>
       <c r="B60" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>15</v>
@@ -2985,10 +3173,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>97</v>
@@ -2997,7 +3185,7 @@
     <row r="62" spans="1:3">
       <c r="A62" s="14"/>
       <c r="B62" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>82</v>
@@ -3006,7 +3194,7 @@
     <row r="63" spans="1:3">
       <c r="A63" s="14"/>
       <c r="B63" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>15</v>
@@ -3015,14 +3203,14 @@
     <row r="64" spans="1:3">
       <c r="A64" s="14"/>
       <c r="B64" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="14"/>
       <c r="B65" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>14</v>
@@ -3031,7 +3219,7 @@
     <row r="66" spans="1:3">
       <c r="A66" s="14"/>
       <c r="B66" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>117</v>
@@ -3040,7 +3228,7 @@
     <row r="67" spans="1:3">
       <c r="A67" s="14"/>
       <c r="B67" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>15</v>
@@ -3049,7 +3237,7 @@
     <row r="68" spans="1:3">
       <c r="A68" s="11"/>
       <c r="B68" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>15</v>
@@ -3057,10 +3245,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>108</v>
@@ -3069,7 +3257,7 @@
     <row r="70" spans="1:3">
       <c r="A70" s="14"/>
       <c r="B70" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>109</v>
@@ -3078,25 +3266,25 @@
     <row r="71" spans="1:3">
       <c r="A71" s="14"/>
       <c r="B71" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="14"/>
       <c r="B72" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>217</v>
+        <v>240</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="14"/>
       <c r="B73" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>15</v>
@@ -3105,7 +3293,7 @@
     <row r="74" spans="1:3">
       <c r="A74" s="14"/>
       <c r="B74" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>71</v>
@@ -3114,7 +3302,7 @@
     <row r="75" spans="1:3">
       <c r="A75" s="14"/>
       <c r="B75" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>112</v>
@@ -3123,7 +3311,7 @@
     <row r="76" spans="1:3">
       <c r="A76" s="11"/>
       <c r="B76" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>15</v>
@@ -3131,10 +3319,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>97</v>
@@ -3143,7 +3331,7 @@
     <row r="78" spans="1:3">
       <c r="A78" s="14"/>
       <c r="B78" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>82</v>
@@ -3152,7 +3340,7 @@
     <row r="79" spans="1:3">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>15</v>
@@ -3161,14 +3349,14 @@
     <row r="80" spans="1:3">
       <c r="A80" s="14"/>
       <c r="B80" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C80" s="16"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="14"/>
       <c r="B81" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>14</v>
@@ -3177,7 +3365,7 @@
     <row r="82" spans="1:3">
       <c r="A82" s="14"/>
       <c r="B82" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>117</v>
@@ -3186,7 +3374,7 @@
     <row r="83" spans="1:3">
       <c r="A83" s="14"/>
       <c r="B83" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>15</v>
@@ -3195,7 +3383,7 @@
     <row r="84" spans="1:3">
       <c r="A84" s="11"/>
       <c r="B84" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>15</v>
@@ -3203,10 +3391,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>108</v>
@@ -3215,7 +3403,7 @@
     <row r="86" spans="1:3">
       <c r="A86" s="14"/>
       <c r="B86" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>109</v>
@@ -3224,25 +3412,25 @@
     <row r="87" spans="1:3">
       <c r="A87" s="14"/>
       <c r="B87" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>218</v>
+        <v>263</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="14"/>
       <c r="B88" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>217</v>
+        <v>264</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="14"/>
       <c r="B89" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>15</v>
@@ -3251,7 +3439,7 @@
     <row r="90" spans="1:3">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>71</v>
@@ -3260,7 +3448,7 @@
     <row r="91" spans="1:3">
       <c r="A91" s="14"/>
       <c r="B91" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>112</v>
@@ -3269,7 +3457,7 @@
     <row r="92" spans="1:3">
       <c r="A92" s="11"/>
       <c r="B92" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>15</v>
@@ -3277,10 +3465,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>97</v>
@@ -3289,7 +3477,7 @@
     <row r="94" spans="1:3">
       <c r="A94" s="14"/>
       <c r="B94" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>82</v>
@@ -3298,7 +3486,7 @@
     <row r="95" spans="1:3">
       <c r="A95" s="14"/>
       <c r="B95" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>15</v>
@@ -3307,14 +3495,14 @@
     <row r="96" spans="1:3">
       <c r="A96" s="14"/>
       <c r="B96" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C96" s="16"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>14</v>
@@ -3323,7 +3511,7 @@
     <row r="98" spans="1:3">
       <c r="A98" s="14"/>
       <c r="B98" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>117</v>
@@ -3332,7 +3520,7 @@
     <row r="99" spans="1:3">
       <c r="A99" s="14"/>
       <c r="B99" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>15</v>
@@ -3341,7 +3529,7 @@
     <row r="100" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>15</v>
@@ -3349,10 +3537,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>108</v>
@@ -3361,7 +3549,7 @@
     <row r="102" spans="1:3">
       <c r="A102" s="14"/>
       <c r="B102" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>109</v>
@@ -3370,25 +3558,25 @@
     <row r="103" spans="1:3">
       <c r="A103" s="14"/>
       <c r="B103" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>218</v>
+        <v>271</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="14"/>
       <c r="B104" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>217</v>
+        <v>272</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="14"/>
       <c r="B105" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>15</v>
@@ -3397,7 +3585,7 @@
     <row r="106" spans="1:3">
       <c r="A106" s="14"/>
       <c r="B106" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>71</v>
@@ -3406,7 +3594,7 @@
     <row r="107" spans="1:3">
       <c r="A107" s="14"/>
       <c r="B107" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>112</v>
@@ -3415,7 +3603,7 @@
     <row r="108" spans="1:3">
       <c r="A108" s="11"/>
       <c r="B108" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>15</v>
@@ -3423,10 +3611,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>97</v>
@@ -3435,7 +3623,7 @@
     <row r="110" spans="1:3">
       <c r="A110" s="14"/>
       <c r="B110" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>82</v>
@@ -3444,7 +3632,7 @@
     <row r="111" spans="1:3">
       <c r="A111" s="14"/>
       <c r="B111" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>15</v>
@@ -3453,14 +3641,14 @@
     <row r="112" spans="1:3">
       <c r="A112" s="14"/>
       <c r="B112" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C112" s="16"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="14"/>
       <c r="B113" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>14</v>
@@ -3469,7 +3657,7 @@
     <row r="114" spans="1:3">
       <c r="A114" s="14"/>
       <c r="B114" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>117</v>
@@ -3478,7 +3666,7 @@
     <row r="115" spans="1:3">
       <c r="A115" s="14"/>
       <c r="B115" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>15</v>
@@ -3487,7 +3675,7 @@
     <row r="116" spans="1:3">
       <c r="A116" s="11"/>
       <c r="B116" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>15</v>
@@ -3495,10 +3683,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>108</v>
@@ -3507,7 +3695,7 @@
     <row r="118" spans="1:3">
       <c r="A118" s="14"/>
       <c r="B118" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>109</v>
@@ -3516,25 +3704,25 @@
     <row r="119" spans="1:3">
       <c r="A119" s="14"/>
       <c r="B119" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>218</v>
+        <v>287</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="14"/>
       <c r="B120" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>217</v>
+        <v>288</v>
+      </c>
+      <c r="C120" s="42" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="14"/>
       <c r="B121" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>15</v>
@@ -3543,7 +3731,7 @@
     <row r="122" spans="1:3">
       <c r="A122" s="14"/>
       <c r="B122" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>71</v>
@@ -3552,7 +3740,7 @@
     <row r="123" spans="1:3">
       <c r="A123" s="14"/>
       <c r="B123" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>112</v>
@@ -3561,7 +3749,7 @@
     <row r="124" spans="1:3">
       <c r="A124" s="11"/>
       <c r="B124" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>15</v>
@@ -3569,10 +3757,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>97</v>
@@ -3581,7 +3769,7 @@
     <row r="126" spans="1:3">
       <c r="A126" s="14"/>
       <c r="B126" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>82</v>
@@ -3590,7 +3778,7 @@
     <row r="127" spans="1:3">
       <c r="A127" s="14"/>
       <c r="B127" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>15</v>
@@ -3599,14 +3787,14 @@
     <row r="128" spans="1:3">
       <c r="A128" s="14"/>
       <c r="B128" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C128" s="16"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="14"/>
       <c r="B129" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>14</v>
@@ -3615,7 +3803,7 @@
     <row r="130" spans="1:3">
       <c r="A130" s="14"/>
       <c r="B130" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>117</v>
@@ -3624,7 +3812,7 @@
     <row r="131" spans="1:3">
       <c r="A131" s="14"/>
       <c r="B131" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>15</v>
@@ -3633,7 +3821,7 @@
     <row r="132" spans="1:3" ht="18.75" customHeight="1">
       <c r="A132" s="11"/>
       <c r="B132" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>15</v>
@@ -3641,10 +3829,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>108</v>
@@ -3653,7 +3841,7 @@
     <row r="134" spans="1:3">
       <c r="A134" s="14"/>
       <c r="B134" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>109</v>
@@ -3662,25 +3850,25 @@
     <row r="135" spans="1:3">
       <c r="A135" s="14"/>
       <c r="B135" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>218</v>
+        <v>303</v>
+      </c>
+      <c r="C135" s="42" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="14"/>
       <c r="B136" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>217</v>
+        <v>304</v>
+      </c>
+      <c r="C136" s="42" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="14"/>
       <c r="B137" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>15</v>
@@ -3689,7 +3877,7 @@
     <row r="138" spans="1:3">
       <c r="A138" s="14"/>
       <c r="B138" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>71</v>
@@ -3698,7 +3886,7 @@
     <row r="139" spans="1:3">
       <c r="A139" s="14"/>
       <c r="B139" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>112</v>
@@ -3707,7 +3895,7 @@
     <row r="140" spans="1:3">
       <c r="A140" s="11"/>
       <c r="B140" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>15</v>
@@ -3715,10 +3903,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>97</v>
@@ -3727,7 +3915,7 @@
     <row r="142" spans="1:3">
       <c r="A142" s="14"/>
       <c r="B142" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>82</v>
@@ -3736,7 +3924,7 @@
     <row r="143" spans="1:3">
       <c r="A143" s="14"/>
       <c r="B143" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>15</v>
@@ -3745,14 +3933,14 @@
     <row r="144" spans="1:3">
       <c r="A144" s="14"/>
       <c r="B144" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C144" s="16"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="14"/>
       <c r="B145" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>14</v>
@@ -3761,7 +3949,7 @@
     <row r="146" spans="1:3">
       <c r="A146" s="14"/>
       <c r="B146" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>117</v>
@@ -3770,7 +3958,7 @@
     <row r="147" spans="1:3">
       <c r="A147" s="14"/>
       <c r="B147" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>15</v>
@@ -3779,7 +3967,7 @@
     <row r="148" spans="1:3">
       <c r="A148" s="11"/>
       <c r="B148" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>15</v>
@@ -3787,10 +3975,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>108</v>
@@ -3799,7 +3987,7 @@
     <row r="150" spans="1:3">
       <c r="A150" s="14"/>
       <c r="B150" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>109</v>
@@ -3808,25 +3996,25 @@
     <row r="151" spans="1:3">
       <c r="A151" s="14"/>
       <c r="B151" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="14"/>
       <c r="B152" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="14"/>
       <c r="B153" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>15</v>
@@ -3835,7 +4023,7 @@
     <row r="154" spans="1:3">
       <c r="A154" s="14"/>
       <c r="B154" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>71</v>
@@ -3844,7 +4032,7 @@
     <row r="155" spans="1:3">
       <c r="A155" s="14"/>
       <c r="B155" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>112</v>
@@ -3853,7 +4041,7 @@
     <row r="156" spans="1:3">
       <c r="A156" s="11"/>
       <c r="B156" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>15</v>
@@ -3861,10 +4049,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>97</v>
@@ -3873,7 +4061,7 @@
     <row r="158" spans="1:3">
       <c r="A158" s="14"/>
       <c r="B158" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>82</v>
@@ -3882,7 +4070,7 @@
     <row r="159" spans="1:3">
       <c r="A159" s="14"/>
       <c r="B159" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>15</v>
@@ -3891,14 +4079,14 @@
     <row r="160" spans="1:3">
       <c r="A160" s="14"/>
       <c r="B160" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C160" s="16"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="14"/>
       <c r="B161" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>14</v>
@@ -3907,7 +4095,7 @@
     <row r="162" spans="1:3">
       <c r="A162" s="14"/>
       <c r="B162" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>117</v>
@@ -3916,7 +4104,7 @@
     <row r="163" spans="1:3">
       <c r="A163" s="14"/>
       <c r="B163" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>15</v>
@@ -3925,7 +4113,7 @@
     <row r="164" spans="1:3">
       <c r="A164" s="11"/>
       <c r="B164" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>15</v>
@@ -4028,7 +4216,7 @@
         <v>158</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C175" s="16" t="s">
         <v>159</v>
@@ -4037,7 +4225,7 @@
     <row r="176" spans="1:3">
       <c r="A176" s="14"/>
       <c r="B176" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C176" s="16" t="s">
         <v>160</v>
@@ -4046,7 +4234,7 @@
     <row r="177" spans="1:3">
       <c r="A177" s="14"/>
       <c r="B177" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C177" s="31" t="s">
         <v>161</v>
@@ -4055,7 +4243,7 @@
     <row r="178" spans="1:3">
       <c r="A178" s="14"/>
       <c r="B178" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>162</v>
@@ -4064,7 +4252,7 @@
     <row r="179" spans="1:3">
       <c r="A179" s="14"/>
       <c r="B179" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C179" s="16" t="s">
         <v>163</v>
@@ -4073,7 +4261,7 @@
     <row r="180" spans="1:3">
       <c r="A180" s="14"/>
       <c r="B180" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C180" s="16" t="s">
         <v>164</v>
@@ -4082,7 +4270,7 @@
     <row r="181" spans="1:3">
       <c r="A181" s="14"/>
       <c r="B181" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C181" s="16" t="s">
         <v>15</v>
@@ -4091,7 +4279,7 @@
     <row r="182" spans="1:3">
       <c r="A182" s="14"/>
       <c r="B182" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>77</v>
@@ -4100,7 +4288,7 @@
     <row r="183" spans="1:3">
       <c r="A183" s="14"/>
       <c r="B183" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>14</v>
@@ -4197,7 +4385,7 @@
         <v>125</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4223,10 +4411,10 @@
     <row r="196" spans="1:3">
       <c r="A196" s="14"/>
       <c r="B196" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4240,7 +4428,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>151</v>
@@ -4278,61 +4466,127 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B202" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B202" s="29" t="s">
+      <c r="C202" s="30" t="s">
         <v>214</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C203" s="41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C204" s="41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B205" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C205" s="41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C206" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="B207" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C207" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C208" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B203" s="29" t="s">
+      <c r="B209" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C203" s="30" t="s">
+      <c r="C209" s="30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="8" t="s">
+    <row r="210" spans="1:3">
+      <c r="A210" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B210" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C210" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="14"/>
-      <c r="B205" s="15" t="s">
+    <row r="211" spans="1:3">
+      <c r="A211" s="14"/>
+      <c r="B211" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C205" s="16" t="s">
+      <c r="C211" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="14"/>
-      <c r="B206" s="15" t="s">
+    <row r="212" spans="1:3">
+      <c r="A212" s="14"/>
+      <c r="B212" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C206" s="16" t="s">
+      <c r="C212" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="11"/>
-      <c r="B207" s="12" t="s">
+    <row r="213" spans="1:3">
+      <c r="A213" s="11"/>
+      <c r="B213" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C207" s="27" t="s">
+      <c r="C213" s="27" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4340,23 +4594,23 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B201:B1048576 B1:B4 B7:B36 B195:B199 B165:B174">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  <conditionalFormatting sqref="B1:B4 B7:B36 B195:B199 B165:B174 B201:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:B183">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B194">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B202">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="B202:B208">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B164">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" location="/v1-family"/>
